--- a/discovery_b64.xlsx
+++ b/discovery_b64.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannesroest/repos/zebra_discovery_b64/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7B22167-F6E9-B840-BE39-9AA7B0095FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607DAE27-96AB-DD4F-B713-AF449125AB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="500" windowWidth="34480" windowHeight="27140" xr2:uid="{035D2A27-0D6D-2B47-B8DF-B2AF17B32418}"/>
+    <workbookView xWindow="51980" yWindow="500" windowWidth="34480" windowHeight="27140" xr2:uid="{035D2A27-0D6D-2B47-B8DF-B2AF17B32418}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C70E4F0-1E5A-2243-AEFC-63F842422450}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -917,7 +917,7 @@
         <v>discoveryVersion</v>
       </c>
       <c r="I3" t="b">
-        <f>E3 = E2+G2</f>
+        <f t="shared" ref="I3:I22" si="1">E3 = E2+G2</f>
         <v>1</v>
       </c>
     </row>
@@ -945,7 +945,7 @@
         <v>productNumber</v>
       </c>
       <c r="I4" t="b">
-        <f>E4 = E3+G3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -973,7 +973,7 @@
         <v>productName</v>
       </c>
       <c r="I5" t="b">
-        <f>E5 = E4+G4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
         <v>dateCode</v>
       </c>
       <c r="I6" t="b">
-        <f>E6 = E5+G5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
         <v>fwVersion</v>
       </c>
       <c r="I7" t="b">
-        <f>E7 = E6+G6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
         <v>companyAbbreviation</v>
       </c>
       <c r="I8" t="b">
-        <f>E8 = E7+G7</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
         <v>hwAddress</v>
       </c>
       <c r="I9" t="b">
-        <f>E9 = E8+G8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
         <v>serialNum</v>
       </c>
       <c r="I10" t="b">
-        <f>E10 = E9+G9</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
         <v>usingNetProtocol</v>
       </c>
       <c r="I11" t="b">
-        <f>E11 = E10+G10</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
         <v>ipAddress</v>
       </c>
       <c r="I12" t="b">
-        <f>E12 = E11+G11</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
         <v>subnetMask</v>
       </c>
       <c r="I13" t="b">
-        <f>E13 = E12+G12</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
         <v>defaultGateway</v>
       </c>
       <c r="I14" t="b">
-        <f>E14 = E13+G13</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
         <v>systemName</v>
       </c>
       <c r="I15" t="b">
-        <f>E15 = E14+G14</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
         <v>notUsed2</v>
       </c>
       <c r="I16" t="b">
-        <f>E16 = E15+G15</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
         <v>getCommunityName</v>
       </c>
       <c r="I17" t="b">
-        <f>E17 = E16+G16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
         <v>setCommunityName</v>
       </c>
       <c r="I18" t="b">
-        <f>E18 = E17+G17</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
         <v>notUsed3</v>
       </c>
       <c r="I19" t="b">
-        <f>E19 = E18+G18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
         <v>portStatus</v>
       </c>
       <c r="I20" t="b">
-        <f>E20 = E19+G19</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
         <v>portName</v>
       </c>
       <c r="I21" t="b">
-        <f>E21 = E20+G20</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I22" t="b">
-        <f>E22 = E21+G21</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
         <v>discoveryVersion</v>
       </c>
       <c r="I24" t="b">
-        <f>E24 = E23+G23</f>
+        <f t="shared" ref="I24:I55" si="2">E24 = E23+G23</f>
         <v>1</v>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
         <v>advancedPacketFormat</v>
       </c>
       <c r="I25" t="b">
-        <f>E25 = E24+G24</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
         <v>notUsed2</v>
       </c>
       <c r="I26" t="b">
-        <f>E26 = E25+G25</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
         <v>companyAbbreviation</v>
       </c>
       <c r="I27" t="b">
-        <f>E27 = E26+G26</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
         <v>systemName</v>
       </c>
       <c r="I28" t="b">
-        <f>E28 = E27+G27</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
         <v>productName</v>
       </c>
       <c r="I29" t="b">
-        <f>E29 = E28+G28</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
         <v>fwVersion</v>
       </c>
       <c r="I30" t="b">
-        <f>E30 = E29+G29</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
         <v>location</v>
       </c>
       <c r="I31" t="b">
-        <f>E31 = E30+G30</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
         <v>errorsSegment0</v>
       </c>
       <c r="I32" t="b">
-        <f>E32 = E31+G31</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
         <v>errorsSegment1</v>
       </c>
       <c r="I33" t="b">
-        <f>E33 = E32+G32</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
         <v>errorsSegment2</v>
       </c>
       <c r="I34" t="b">
-        <f>E34 = E33+G33</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
         <v>warningsSegment0</v>
       </c>
       <c r="I35" t="b">
-        <f>E35 = E34+G34</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
         <v>warningsSegment1</v>
       </c>
       <c r="I36" t="b">
-        <f>E36 = E35+G35</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
         <v>warningsSegment2</v>
       </c>
       <c r="I37" t="b">
-        <f>E37 = E36+G36</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1945,11 +1945,11 @@
         <v>4</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F38,LEN(F38)-4)</f>
         <v>availableInterfacesBitfield</v>
       </c>
       <c r="I38" t="b">
-        <f>E38 = E37+G37</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
         <v>deviceUniqueId</v>
       </c>
       <c r="I39" t="b">
-        <f>E39 = E38+G38</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
         <v>dnsDomain</v>
       </c>
       <c r="I40" t="b">
-        <f>E40 = E39+G39</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
         <v>activeInterface</v>
       </c>
       <c r="I41" t="b">
-        <f>E41 = E40+G40</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
         <v>macAddress</v>
       </c>
       <c r="I42" t="b">
-        <f>E42 = E41+G41</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
         <v>ipAcquisitionProto</v>
       </c>
       <c r="I43" t="b">
-        <f>E43 = E42+G42</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
         <v>ipAddress</v>
       </c>
       <c r="I44" t="b">
-        <f>E44 = E43+G43</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
         <v>subnetMask</v>
       </c>
       <c r="I45" t="b">
-        <f>E45 = E44+G44</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
         <v>gatewayMask</v>
       </c>
       <c r="I46" t="b">
-        <f>E46 = E45+G45</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
         <v>port</v>
       </c>
       <c r="I47" t="b">
-        <f>E47 = E46+G46</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
         <v>availableProtocols</v>
       </c>
       <c r="I48" t="b">
-        <f>E48 = E47+G47</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
         <v>primaryLanguage</v>
       </c>
       <c r="I49" t="b">
-        <f>E49 = E48+G48</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
         <v>availableLanguagesBitfield</v>
       </c>
       <c r="I50" t="b">
-        <f>E50 = E49+G49</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
         <v>availableSecondaryLanguagesBitfield</v>
       </c>
       <c r="I51" t="b">
-        <f>E51 = E50+G50</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
         <v>dotsPerMm</v>
       </c>
       <c r="I52" t="b">
-        <f>E52 = E51+G51</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
         <v>dotsPerDotRow</v>
       </c>
       <c r="I53" t="b">
-        <f>E53 = E52+G52</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
         <v>labelLength</v>
       </c>
       <c r="I54" t="b">
-        <f>E54 = E53+G53</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
         <v>labelWidth</v>
       </c>
       <c r="I55" t="b">
-        <f>E55 = E54+G54</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
         <v>darkness</v>
       </c>
       <c r="I56" t="b">
-        <f>E56 = E55+G55</f>
+        <f t="shared" ref="I56:I77" si="3">E56 = E55+G55</f>
         <v>1</v>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
         <v>mediaType</v>
       </c>
       <c r="I57" t="b">
-        <f>E57 = E56+G56</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
         <v>printMethod</v>
       </c>
       <c r="I58" t="b">
-        <f>E58 = E57+G57</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
         <v>printMode</v>
       </c>
       <c r="I59" t="b">
-        <f>E59 = E58+G58</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
         <v>odometerTotal</v>
       </c>
       <c r="I60" t="b">
-        <f>E60 = E59+G59</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
         <v>odometerMarkerOne</v>
       </c>
       <c r="I61" t="b">
-        <f>E61 = E60+G60</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
         <v>odometerMarkerTwo</v>
       </c>
       <c r="I62" t="b">
-        <f>E62 = E61+G61</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
         <v>numOfLabelsInBatch</v>
       </c>
       <c r="I63" t="b">
-        <f>E63 = E62+G62</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
         <v>labelsQueued</v>
       </c>
       <c r="I64" t="b">
-        <f>E64 = E63+G63</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
         <v>zbiEnabled</v>
       </c>
       <c r="I65" t="b">
-        <f>E65 = E64+G64</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
         <v>zbiState</v>
       </c>
       <c r="I66" t="b">
-        <f>E66 = E65+G65</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2844,11 +2844,11 @@
         <v>1</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H77" si="1">LEFT(F67,LEN(F67)-4)</f>
+        <f t="shared" ref="H67:H77" si="4">LEFT(F67,LEN(F67)-4)</f>
         <v>zbiMajorVersion</v>
       </c>
       <c r="I67" t="b">
-        <f>E67 = E66+G66</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2875,11 +2875,11 @@
         <v>1</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>zbiMinorVersion</v>
       </c>
       <c r="I68" t="b">
-        <f>E68 = E67+G67</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2906,11 +2906,11 @@
         <v>2</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>printHeadWidth</v>
       </c>
       <c r="I69" t="b">
-        <f>E69 = E68+G68</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2937,11 +2937,11 @@
         <v>2</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>jsonPort</v>
       </c>
       <c r="I70" t="b">
-        <f>E70 = E69+G69</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2968,11 +2968,11 @@
         <v>1</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>linkOsMajorVer</v>
       </c>
       <c r="I71" t="b">
-        <f>E71 = E70+G70</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2999,11 +2999,11 @@
         <v>1</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>linkOsMinorVer</v>
       </c>
       <c r="I72" t="b">
-        <f>E72 = E71+G71</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3030,11 +3030,11 @@
         <v>6</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>avsIniVersion</v>
       </c>
       <c r="I73" t="b">
-        <f>E73 = E72+G72</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3061,11 +3061,11 @@
         <v>8</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>processorId</v>
       </c>
       <c r="I74" t="b">
-        <f>E74 = E73+G73</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3092,11 +3092,11 @@
         <v>2</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>tlsRawPort</v>
       </c>
       <c r="I75" t="b">
-        <f>E75 = E74+G74</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3123,11 +3123,11 @@
         <v>2</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>tlsJsonPort</v>
       </c>
       <c r="I76" t="b">
-        <f>E76 = E75+G75</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3154,11 +3154,11 @@
         <v>1</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>wired8021XSecuritySetting</v>
       </c>
       <c r="I77" t="b">
-        <f>E77 = E76+G76</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3176,307 +3176,307 @@
         <v>1</v>
       </c>
       <c r="B80">
-        <f>B79*2</f>
+        <f t="shared" ref="B80:B100" si="5">B79*2</f>
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" ref="A81:A100" si="2">A80+1</f>
+        <f t="shared" ref="A81:A100" si="6">A80+1</f>
         <v>2</v>
       </c>
       <c r="B81">
-        <f>B80*2</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="B82">
-        <f>B81*2</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B83">
-        <f>B82*2</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B84">
-        <f>B83*2</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B85">
-        <f>B84*2</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="B86">
-        <f>B85*2</f>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B87">
-        <f>B86*2</f>
+        <f t="shared" si="5"/>
         <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B88">
-        <f>B87*2</f>
+        <f t="shared" si="5"/>
         <v>512</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="B89">
-        <f>B88*2</f>
+        <f t="shared" si="5"/>
         <v>1024</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="B90">
-        <f>B89*2</f>
+        <f t="shared" si="5"/>
         <v>2048</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="B91">
-        <f>B90*2</f>
+        <f t="shared" si="5"/>
         <v>4096</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="B92">
-        <f>B91*2</f>
+        <f t="shared" si="5"/>
         <v>8192</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="B93">
-        <f>B92*2</f>
+        <f t="shared" si="5"/>
         <v>16384</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="B94">
-        <f>B93*2</f>
+        <f t="shared" si="5"/>
         <v>32768</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="B95">
-        <f>B94*2</f>
+        <f t="shared" si="5"/>
         <v>65536</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="B96">
-        <f>B95*2</f>
+        <f t="shared" si="5"/>
         <v>131072</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="B97">
-        <f>B96*2</f>
+        <f t="shared" si="5"/>
         <v>262144</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="B98">
-        <f>B97*2</f>
+        <f t="shared" si="5"/>
         <v>524288</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="B99">
-        <f>B98*2</f>
+        <f t="shared" si="5"/>
         <v>1048576</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="B100">
-        <f>B99*2</f>
+        <f t="shared" si="5"/>
         <v>2097152</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" ref="A101:A112" si="3">A100+1</f>
+        <f t="shared" ref="A101:A110" si="7">A100+1</f>
         <v>22</v>
       </c>
       <c r="B101">
-        <f t="shared" ref="B101:B112" si="4">B100*2</f>
+        <f t="shared" ref="B101:B110" si="8">B100*2</f>
         <v>4194304</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="B102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8388608</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="B103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16777216</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="B104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33554432</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="B105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>67108864</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="B106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>134217728</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="B107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>268435456</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="B108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>536870912</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="B109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1073741824</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="B110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2147483648</v>
       </c>
     </row>
